--- a/tables/table_05_v2.xlsx
+++ b/tables/table_05_v2.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +69,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,8 +193,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -213,7 +231,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,7 +512,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+      <selection activeCell="E20" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tables/table_05_v2.xlsx
+++ b/tables/table_05_v2.xlsx
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,22 +69,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,6 +91,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -127,12 +122,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -155,85 +170,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,307 +499,307 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2.3999999999999998E-7</v>
+      </c>
+      <c r="E2" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.3999999999999998E-7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6">
-        <v>135</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>28</v>
+      </c>
+      <c r="D4" s="13">
+        <v>135</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="E6" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6">
-        <v>135</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13">
+        <v>135</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="E10" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.1999999999999999E-7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6">
-        <v>135</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13">
+        <v>135</v>
+      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.7E-5</v>
+      </c>
+      <c r="E14" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.7E-5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
         <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6">
-        <v>135</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13">
+        <v>135</v>
+      </c>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E18" s="11">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6">
-        <v>135</v>
-      </c>
-      <c r="E20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13">
+        <v>135</v>
+      </c>
+      <c r="E20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
